--- a/documents/templates/bulk-upload/00-OrderOfDataTobePushed.xlsx
+++ b/documents/templates/bulk-upload/00-OrderOfDataTobePushed.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC6C0D0-D36D-634A-B3E0-36679597D1DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A4287-78E9-3849-9109-C8AF5C7C27F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{008BFA45-A4D0-1E44-9F99-3D7080BC60F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Order In which Tables should be filled</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Prepare Machine PDF/Excel for Machine</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795D7243-4DB8-2F4F-BA9E-A81A1C34D943}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,82 +450,94 @@
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>

--- a/documents/templates/bulk-upload/00-OrderOfDataTobePushed.xlsx
+++ b/documents/templates/bulk-upload/00-OrderOfDataTobePushed.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A4287-78E9-3849-9109-C8AF5C7C27F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2036E1BB-6F35-1B45-AB59-9AC4945AD62F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" xr2:uid="{008BFA45-A4D0-1E44-9F99-3D7080BC60F6}"/>
+    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" activeTab="1" xr2:uid="{008BFA45-A4D0-1E44-9F99-3D7080BC60F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Order In which Tables should be filled</t>
   </si>
@@ -88,6 +90,27 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>sockats.js</t>
+  </si>
+  <si>
+    <t>change onlyAllowOrigins</t>
+  </si>
+  <si>
+    <t>datastores.js</t>
+  </si>
+  <si>
+    <t>change adapter as per database type</t>
+  </si>
+  <si>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>Server URL</t>
+  </si>
+  <si>
+    <t>install forever</t>
   </si>
 </sst>
 </file>
@@ -441,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795D7243-4DB8-2F4F-BA9E-A81A1C34D943}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -550,4 +573,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A4A28D-B1AA-A741-8810-FE7FEBBE60C9}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D0B39E-897A-BE4B-8D8C-6A5AEA546836}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>